--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41557</v>
+        <v>41589</v>
       </c>
       <c r="D2" t="n">
-        <v>60005908</v>
+        <v>60048447</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98699</v>
+        <v>98772</v>
       </c>
       <c r="D3" t="n">
-        <v>144580644</v>
+        <v>144683350</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33594</v>
+        <v>33624</v>
       </c>
       <c r="D4" t="n">
-        <v>49722317</v>
+        <v>49768313</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9599</v>
+        <v>9616</v>
       </c>
       <c r="D5" t="n">
-        <v>14258742</v>
+        <v>14284242</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2373</v>
+        <v>2379</v>
       </c>
       <c r="D6" t="n">
-        <v>3525471</v>
+        <v>3534471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" t="n">
-        <v>365593</v>
+        <v>368593</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="D12" t="n">
-        <v>60469968</v>
+        <v>60515782</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10525</v>
+        <v>10534</v>
       </c>
       <c r="D13" t="n">
-        <v>15199644</v>
+        <v>15212918</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27791</v>
+        <v>27819</v>
       </c>
       <c r="D14" t="n">
-        <v>40723897</v>
+        <v>40765897</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8809</v>
+        <v>8818</v>
       </c>
       <c r="D15" t="n">
-        <v>13072044</v>
+        <v>13085166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="D16" t="n">
-        <v>3465989</v>
+        <v>3467875</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10971</v>
+        <v>10976</v>
       </c>
       <c r="D20" t="n">
-        <v>14445080</v>
+        <v>14449504</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14465</v>
+        <v>14479</v>
       </c>
       <c r="D21" t="n">
-        <v>20848372</v>
+        <v>20865750</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33651</v>
+        <v>33662</v>
       </c>
       <c r="D22" t="n">
-        <v>49338989</v>
+        <v>49355296</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10828</v>
+        <v>10835</v>
       </c>
       <c r="D23" t="n">
-        <v>16089261</v>
+        <v>16099239</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="D24" t="n">
-        <v>4272615</v>
+        <v>4274115</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>63953</v>
+        <v>65453</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12492</v>
+        <v>12503</v>
       </c>
       <c r="D27" t="n">
-        <v>16601570</v>
+        <v>16615544</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8418</v>
+        <v>8423</v>
       </c>
       <c r="D28" t="n">
-        <v>12174184</v>
+        <v>12181684</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24205</v>
+        <v>24221</v>
       </c>
       <c r="D29" t="n">
-        <v>35502324</v>
+        <v>35524253</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8330</v>
+        <v>8334</v>
       </c>
       <c r="D30" t="n">
-        <v>12383707</v>
+        <v>12389707</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="D31" t="n">
-        <v>3168208</v>
+        <v>3172708</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D32" t="n">
-        <v>634121</v>
+        <v>635621</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8987</v>
+        <v>8992</v>
       </c>
       <c r="D34" t="n">
-        <v>11837888</v>
+        <v>11844848</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3676</v>
+        <v>3684</v>
       </c>
       <c r="D35" t="n">
-        <v>5304015</v>
+        <v>5314068</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8627</v>
+        <v>8631</v>
       </c>
       <c r="D36" t="n">
-        <v>12605145</v>
+        <v>12611045</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="D37" t="n">
-        <v>5042508</v>
+        <v>5047008</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D38" t="n">
-        <v>1302055</v>
+        <v>1303555</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D39" t="n">
-        <v>267686</v>
+        <v>269186</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2755</v>
+        <v>2761</v>
       </c>
       <c r="D41" t="n">
-        <v>3709647</v>
+        <v>3715647</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18813</v>
+        <v>18834</v>
       </c>
       <c r="D42" t="n">
-        <v>27163626</v>
+        <v>27191903</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>54774</v>
+        <v>54807</v>
       </c>
       <c r="D43" t="n">
-        <v>80243674</v>
+        <v>80290965</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20088</v>
+        <v>20098</v>
       </c>
       <c r="D44" t="n">
-        <v>29817967</v>
+        <v>29832081</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D46" t="n">
-        <v>2103144</v>
+        <v>2106144</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18260</v>
+        <v>18270</v>
       </c>
       <c r="D50" t="n">
-        <v>24174066</v>
+        <v>24186994</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="D51" t="n">
-        <v>3434026</v>
+        <v>3438526</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7970</v>
+        <v>7981</v>
       </c>
       <c r="D52" t="n">
-        <v>11706363</v>
+        <v>11723028</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="D53" t="n">
-        <v>3988133</v>
+        <v>3992633</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D54" t="n">
-        <v>1256414</v>
+        <v>1259414</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7946</v>
+        <v>7953</v>
       </c>
       <c r="D57" t="n">
-        <v>10933196</v>
+        <v>10941837</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="D58" t="n">
-        <v>3298717</v>
+        <v>3316440</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3928</v>
+        <v>3939</v>
       </c>
       <c r="D59" t="n">
-        <v>7849312</v>
+        <v>7882312</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="D60" t="n">
-        <v>3100294</v>
+        <v>3121294</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D61" t="n">
-        <v>1036583</v>
+        <v>1053083</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" t="n">
-        <v>391487</v>
+        <v>394487</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="D64" t="n">
-        <v>4743864</v>
+        <v>4752864</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16964</v>
+        <v>16976</v>
       </c>
       <c r="D65" t="n">
-        <v>24481688</v>
+        <v>24498817</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>48269</v>
+        <v>48309</v>
       </c>
       <c r="D66" t="n">
-        <v>70557896</v>
+        <v>70617001</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16867</v>
+        <v>16882</v>
       </c>
       <c r="D67" t="n">
-        <v>25061462</v>
+        <v>25083962</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="D69" t="n">
-        <v>1616199</v>
+        <v>1622199</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16122</v>
+        <v>16130</v>
       </c>
       <c r="D73" t="n">
-        <v>21156418</v>
+        <v>21164772</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>62452</v>
+        <v>62563</v>
       </c>
       <c r="D74" t="n">
-        <v>90774416</v>
+        <v>90931790</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>170058</v>
+        <v>170320</v>
       </c>
       <c r="D75" t="n">
-        <v>250266919</v>
+        <v>250643438</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>72638</v>
+        <v>72772</v>
       </c>
       <c r="D76" t="n">
-        <v>108177364</v>
+        <v>108376532</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23755</v>
+        <v>23812</v>
       </c>
       <c r="D77" t="n">
-        <v>35476577</v>
+        <v>35562074</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6166</v>
+        <v>6195</v>
       </c>
       <c r="D78" t="n">
-        <v>9201377</v>
+        <v>9244877</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D79" t="n">
-        <v>668458</v>
+        <v>671458</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>61453</v>
+        <v>61562</v>
       </c>
       <c r="D85" t="n">
-        <v>82881126</v>
+        <v>83003511</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="D86" t="n">
-        <v>7432873</v>
+        <v>7435873</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12607</v>
+        <v>12616</v>
       </c>
       <c r="D87" t="n">
-        <v>18512943</v>
+        <v>18525814</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="D88" t="n">
-        <v>6160126</v>
+        <v>6163126</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D89" t="n">
-        <v>2172111</v>
+        <v>2173611</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5869</v>
+        <v>5874</v>
       </c>
       <c r="D93" t="n">
-        <v>7870374</v>
+        <v>7877874</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="D94" t="n">
-        <v>2654493</v>
+        <v>2661993</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5858</v>
+        <v>5865</v>
       </c>
       <c r="D95" t="n">
-        <v>8632257</v>
+        <v>8642757</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="D96" t="n">
-        <v>3138931</v>
+        <v>3143431</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D98" t="n">
-        <v>337111</v>
+        <v>339109</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="D101" t="n">
-        <v>5276663</v>
+        <v>5280363</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D102" t="n">
-        <v>1770061</v>
+        <v>1779061</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D103" t="n">
-        <v>1253284</v>
+        <v>1259284</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11895</v>
+        <v>11900</v>
       </c>
       <c r="D107" t="n">
-        <v>17237767</v>
+        <v>17245765</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>31110</v>
+        <v>31121</v>
       </c>
       <c r="D108" t="n">
-        <v>45660684</v>
+        <v>45675276</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10421</v>
+        <v>10429</v>
       </c>
       <c r="D109" t="n">
-        <v>15490760</v>
+        <v>15502760</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D110" t="n">
-        <v>4308071</v>
+        <v>4309571</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10485</v>
+        <v>10493</v>
       </c>
       <c r="D115" t="n">
-        <v>13794327</v>
+        <v>13803149</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33387</v>
+        <v>33414</v>
       </c>
       <c r="D116" t="n">
-        <v>48096893</v>
+        <v>48133995</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>70872</v>
+        <v>70927</v>
       </c>
       <c r="D117" t="n">
-        <v>103652199</v>
+        <v>103732868</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22735</v>
+        <v>22744</v>
       </c>
       <c r="D118" t="n">
-        <v>33769086</v>
+        <v>33782586</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6523</v>
+        <v>6526</v>
       </c>
       <c r="D119" t="n">
-        <v>9710552</v>
+        <v>9715052</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D120" t="n">
-        <v>1946735</v>
+        <v>1950233</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D121" t="n">
-        <v>183795</v>
+        <v>185295</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>27679</v>
+        <v>27695</v>
       </c>
       <c r="D125" t="n">
-        <v>36850365</v>
+        <v>36870555</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39889</v>
+        <v>39919</v>
       </c>
       <c r="D126" t="n">
-        <v>57500396</v>
+        <v>57542589</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>83281</v>
+        <v>83348</v>
       </c>
       <c r="D127" t="n">
-        <v>121672150</v>
+        <v>121766362</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>25514</v>
+        <v>25527</v>
       </c>
       <c r="D128" t="n">
-        <v>37857749</v>
+        <v>37877249</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6959</v>
+        <v>6967</v>
       </c>
       <c r="D129" t="n">
-        <v>10341009</v>
+        <v>10353009</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D130" t="n">
-        <v>2184261</v>
+        <v>2187261</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>34195</v>
+        <v>34211</v>
       </c>
       <c r="D134" t="n">
-        <v>45271638</v>
+        <v>45291943</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>14506</v>
+        <v>14518</v>
       </c>
       <c r="D135" t="n">
-        <v>20981792</v>
+        <v>20998973</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>34589</v>
+        <v>34618</v>
       </c>
       <c r="D136" t="n">
-        <v>50765674</v>
+        <v>50805744</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>12202</v>
+        <v>12211</v>
       </c>
       <c r="D137" t="n">
-        <v>18129271</v>
+        <v>18142771</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="D138" t="n">
-        <v>4816375</v>
+        <v>4817875</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11593</v>
+        <v>11603</v>
       </c>
       <c r="D143" t="n">
-        <v>15403918</v>
+        <v>15414361</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>39172</v>
+        <v>39222</v>
       </c>
       <c r="D144" t="n">
-        <v>56554998</v>
+        <v>56622636</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>89684</v>
+        <v>89798</v>
       </c>
       <c r="D145" t="n">
-        <v>131293075</v>
+        <v>131454155</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>26771</v>
+        <v>26835</v>
       </c>
       <c r="D146" t="n">
-        <v>39765254</v>
+        <v>39863611</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7138</v>
+        <v>7154</v>
       </c>
       <c r="D147" t="n">
-        <v>10636453</v>
+        <v>10660774</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1737</v>
+        <v>1750</v>
       </c>
       <c r="D148" t="n">
-        <v>2580915</v>
+        <v>2600406</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>31696</v>
+        <v>31717</v>
       </c>
       <c r="D151" t="n">
-        <v>42593564</v>
+        <v>42621580</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41589</v>
+        <v>41620</v>
       </c>
       <c r="D2" t="n">
-        <v>60048447</v>
+        <v>60091863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98772</v>
+        <v>98833</v>
       </c>
       <c r="D3" t="n">
-        <v>144683350</v>
+        <v>144774505</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33624</v>
+        <v>33648</v>
       </c>
       <c r="D4" t="n">
-        <v>49768313</v>
+        <v>49800921</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9616</v>
+        <v>9621</v>
       </c>
       <c r="D5" t="n">
-        <v>14284242</v>
+        <v>14291742</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2379</v>
+        <v>2384</v>
       </c>
       <c r="D6" t="n">
-        <v>3534471</v>
+        <v>3541971</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" t="n">
-        <v>368593</v>
+        <v>370093</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44732</v>
+        <v>44755</v>
       </c>
       <c r="D12" t="n">
-        <v>60515782</v>
+        <v>60538882</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10534</v>
+        <v>10541</v>
       </c>
       <c r="D13" t="n">
-        <v>15212918</v>
+        <v>15223418</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27819</v>
+        <v>27836</v>
       </c>
       <c r="D14" t="n">
-        <v>40765897</v>
+        <v>40790156</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8818</v>
+        <v>8822</v>
       </c>
       <c r="D15" t="n">
-        <v>13085166</v>
+        <v>13091166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="D16" t="n">
-        <v>3467875</v>
+        <v>3469375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D17" t="n">
-        <v>713623</v>
+        <v>716623</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10976</v>
+        <v>10981</v>
       </c>
       <c r="D20" t="n">
-        <v>14449504</v>
+        <v>14453798</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14479</v>
+        <v>14488</v>
       </c>
       <c r="D21" t="n">
-        <v>20865750</v>
+        <v>20878818</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33662</v>
+        <v>33672</v>
       </c>
       <c r="D22" t="n">
-        <v>49355296</v>
+        <v>49370074</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10835</v>
+        <v>10844</v>
       </c>
       <c r="D23" t="n">
-        <v>16099239</v>
+        <v>16113085</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="D24" t="n">
-        <v>4274115</v>
+        <v>4277115</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12503</v>
+        <v>12509</v>
       </c>
       <c r="D27" t="n">
-        <v>16615544</v>
+        <v>16620862</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8423</v>
+        <v>8425</v>
       </c>
       <c r="D28" t="n">
-        <v>12181684</v>
+        <v>12184540</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24221</v>
+        <v>24235</v>
       </c>
       <c r="D29" t="n">
-        <v>35524253</v>
+        <v>35544886</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="D30" t="n">
-        <v>12389707</v>
+        <v>12391207</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D32" t="n">
-        <v>635621</v>
+        <v>637121</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8992</v>
+        <v>9004</v>
       </c>
       <c r="D34" t="n">
-        <v>11844848</v>
+        <v>11858007</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="D35" t="n">
-        <v>5314068</v>
+        <v>5316568</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8631</v>
+        <v>8640</v>
       </c>
       <c r="D36" t="n">
-        <v>12611045</v>
+        <v>12623245</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D38" t="n">
-        <v>1303555</v>
+        <v>1306555</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="D41" t="n">
-        <v>3715647</v>
+        <v>3719772</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18834</v>
+        <v>18841</v>
       </c>
       <c r="D42" t="n">
-        <v>27191903</v>
+        <v>27201780</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>54807</v>
+        <v>54833</v>
       </c>
       <c r="D43" t="n">
-        <v>80290965</v>
+        <v>80326347</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20098</v>
+        <v>20100</v>
       </c>
       <c r="D44" t="n">
-        <v>29832081</v>
+        <v>29835081</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="D45" t="n">
-        <v>8958336</v>
+        <v>8961336</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="D46" t="n">
-        <v>2106144</v>
+        <v>2109144</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18270</v>
+        <v>18283</v>
       </c>
       <c r="D50" t="n">
-        <v>24186994</v>
+        <v>24201952</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7981</v>
+        <v>7987</v>
       </c>
       <c r="D52" t="n">
-        <v>11723028</v>
+        <v>11732028</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="D53" t="n">
-        <v>3992633</v>
+        <v>3995633</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D54" t="n">
-        <v>1259414</v>
+        <v>1262414</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7953</v>
+        <v>7957</v>
       </c>
       <c r="D57" t="n">
-        <v>10941837</v>
+        <v>10947304</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="D58" t="n">
-        <v>3316440</v>
+        <v>3326816</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3939</v>
+        <v>3944</v>
       </c>
       <c r="D59" t="n">
-        <v>7882312</v>
+        <v>7897312</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D60" t="n">
-        <v>3121294</v>
+        <v>3130126</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D61" t="n">
-        <v>1053083</v>
+        <v>1059083</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" t="n">
-        <v>394487</v>
+        <v>397487</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="D64" t="n">
-        <v>4752864</v>
+        <v>4769464</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16976</v>
+        <v>16989</v>
       </c>
       <c r="D65" t="n">
-        <v>24498817</v>
+        <v>24518815</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>48309</v>
+        <v>48348</v>
       </c>
       <c r="D66" t="n">
-        <v>70617001</v>
+        <v>70672472</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16882</v>
+        <v>16890</v>
       </c>
       <c r="D67" t="n">
-        <v>25083962</v>
+        <v>25096450</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4923</v>
+        <v>4929</v>
       </c>
       <c r="D68" t="n">
-        <v>7332024</v>
+        <v>7341024</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D69" t="n">
-        <v>1622199</v>
+        <v>1625199</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>16130</v>
+        <v>16136</v>
       </c>
       <c r="D73" t="n">
-        <v>21164772</v>
+        <v>21171819</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>62563</v>
+        <v>62616</v>
       </c>
       <c r="D74" t="n">
-        <v>90931790</v>
+        <v>91009207</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>170320</v>
+        <v>170464</v>
       </c>
       <c r="D75" t="n">
-        <v>250643438</v>
+        <v>250849987</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>72772</v>
+        <v>72856</v>
       </c>
       <c r="D76" t="n">
-        <v>108376532</v>
+        <v>108501564</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23812</v>
+        <v>23850</v>
       </c>
       <c r="D77" t="n">
-        <v>35562074</v>
+        <v>35619074</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6195</v>
+        <v>6214</v>
       </c>
       <c r="D78" t="n">
-        <v>9244877</v>
+        <v>9273377</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D79" t="n">
-        <v>671458</v>
+        <v>674956</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>61562</v>
+        <v>61648</v>
       </c>
       <c r="D85" t="n">
-        <v>83003511</v>
+        <v>83113578</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5133</v>
+        <v>5134</v>
       </c>
       <c r="D86" t="n">
-        <v>7435873</v>
+        <v>7437373</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12616</v>
+        <v>12619</v>
       </c>
       <c r="D87" t="n">
-        <v>18525814</v>
+        <v>18530221</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="D88" t="n">
-        <v>6163126</v>
+        <v>6164626</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D89" t="n">
-        <v>2173611</v>
+        <v>2175111</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D90" t="n">
-        <v>520012</v>
+        <v>521512</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
-        <v>47902</v>
+        <v>49402</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5874</v>
+        <v>5879</v>
       </c>
       <c r="D93" t="n">
-        <v>7877874</v>
+        <v>7885374</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D94" t="n">
-        <v>2661993</v>
+        <v>2664993</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5865</v>
+        <v>5876</v>
       </c>
       <c r="D95" t="n">
-        <v>8642757</v>
+        <v>8658589</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3984</v>
+        <v>3989</v>
       </c>
       <c r="D101" t="n">
-        <v>5280363</v>
+        <v>5286563</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11900</v>
+        <v>11907</v>
       </c>
       <c r="D107" t="n">
-        <v>17245765</v>
+        <v>17255109</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>31121</v>
+        <v>31134</v>
       </c>
       <c r="D108" t="n">
-        <v>45675276</v>
+        <v>45694469</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>10429</v>
+        <v>10436</v>
       </c>
       <c r="D109" t="n">
-        <v>15502760</v>
+        <v>15513260</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="D110" t="n">
-        <v>4309571</v>
+        <v>4315571</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D112" t="n">
-        <v>100500</v>
+        <v>102000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10493</v>
+        <v>10497</v>
       </c>
       <c r="D115" t="n">
-        <v>13803149</v>
+        <v>13808872</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33414</v>
+        <v>33447</v>
       </c>
       <c r="D116" t="n">
-        <v>48133995</v>
+        <v>48181144</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>70927</v>
+        <v>70957</v>
       </c>
       <c r="D117" t="n">
-        <v>103732868</v>
+        <v>103773661</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22744</v>
+        <v>22751</v>
       </c>
       <c r="D118" t="n">
-        <v>33782586</v>
+        <v>33791638</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6526</v>
+        <v>6532</v>
       </c>
       <c r="D119" t="n">
-        <v>9715052</v>
+        <v>9724052</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D120" t="n">
-        <v>1950233</v>
+        <v>1953233</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D121" t="n">
-        <v>185295</v>
+        <v>189795</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>27695</v>
+        <v>27716</v>
       </c>
       <c r="D125" t="n">
-        <v>36870555</v>
+        <v>36896376</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39919</v>
+        <v>39955</v>
       </c>
       <c r="D126" t="n">
-        <v>57542589</v>
+        <v>57594589</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>83348</v>
+        <v>83393</v>
       </c>
       <c r="D127" t="n">
-        <v>121766362</v>
+        <v>121830127</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>25527</v>
+        <v>25547</v>
       </c>
       <c r="D128" t="n">
-        <v>37877249</v>
+        <v>37904937</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6967</v>
+        <v>6969</v>
       </c>
       <c r="D129" t="n">
-        <v>10353009</v>
+        <v>10356009</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D130" t="n">
-        <v>2187261</v>
+        <v>2191761</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>34211</v>
+        <v>34231</v>
       </c>
       <c r="D134" t="n">
-        <v>45291943</v>
+        <v>45316663</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>14518</v>
+        <v>14524</v>
       </c>
       <c r="D135" t="n">
-        <v>20998973</v>
+        <v>21007024</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>34618</v>
+        <v>34634</v>
       </c>
       <c r="D136" t="n">
-        <v>50805744</v>
+        <v>50827850</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>12211</v>
+        <v>12216</v>
       </c>
       <c r="D137" t="n">
-        <v>18142771</v>
+        <v>18150271</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D138" t="n">
-        <v>4817875</v>
+        <v>4819375</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D139" t="n">
-        <v>875990</v>
+        <v>877490</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11603</v>
+        <v>11608</v>
       </c>
       <c r="D143" t="n">
-        <v>15414361</v>
+        <v>15420764</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>39222</v>
+        <v>39250</v>
       </c>
       <c r="D144" t="n">
-        <v>56622636</v>
+        <v>56662334</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>89798</v>
+        <v>89880</v>
       </c>
       <c r="D145" t="n">
-        <v>131454155</v>
+        <v>131572025</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>26835</v>
+        <v>26873</v>
       </c>
       <c r="D146" t="n">
-        <v>39863611</v>
+        <v>39923880</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7154</v>
+        <v>7165</v>
       </c>
       <c r="D147" t="n">
-        <v>10660774</v>
+        <v>10677931</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1750</v>
+        <v>1762</v>
       </c>
       <c r="D148" t="n">
-        <v>2600406</v>
+        <v>2623218</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D149" t="n">
-        <v>176630</v>
+        <v>179630</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>31717</v>
+        <v>31738</v>
       </c>
       <c r="D151" t="n">
-        <v>42621580</v>
+        <v>42646669</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
